--- a/AAII_Financials/Quarterly/ECRP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ECRP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>ECRP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,62 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,22 +748,28 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -770,22 +783,28 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -799,8 +818,14 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +837,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +868,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +903,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +938,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +973,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +989,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -967,8 +1020,14 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -996,8 +1055,14 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1074,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1105,14 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1140,14 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,8 +1175,14 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1125,8 +1210,14 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1245,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,8 +1280,14 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1212,8 +1315,14 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1241,8 +1350,14 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1490,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,8 +1525,14 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1415,8 +1560,14 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +1595,14 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1473,42 +1630,54 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1704,10 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1562,8 +1735,14 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1770,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1602,26 +1787,32 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,13 +1840,19 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -1678,8 +1875,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,8 +1910,14 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1945,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1980,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2015,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2085,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2120,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +2155,14 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1939,8 +2190,14 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2224,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1979,11 +2240,11 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
@@ -1994,8 +2255,14 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,8 +2290,14 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2052,8 +2325,14 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,8 +2360,14 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2395,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2430,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2535,14 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2255,8 +2570,14 @@
       <c r="K66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,16 +2725,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2413,8 +2760,14 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,8 +2865,14 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2529,8 +2900,14 @@
       <c r="K76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,42 +2935,54 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2621,8 +3010,14 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,13 +3029,15 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2663,8 +3060,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3235,14 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +3270,14 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3289,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,13 +3390,19 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
@@ -2951,11 +3410,11 @@
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -2966,8 +3425,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3580,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3650,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3683,12 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ECRP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ECRP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>ECRP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,70 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,28 +762,34 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -789,28 +803,34 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -824,8 +844,14 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +865,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +902,14 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +943,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +984,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1025,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,8 +1043,10 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1026,8 +1080,14 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1061,8 +1121,14 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1142,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1111,25 +1179,31 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -1146,8 +1220,14 @@
       <c r="M21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1157,11 +1237,11 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1169,8 +1249,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1181,8 +1261,14 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1216,8 +1302,14 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1343,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,8 +1384,14 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1321,8 +1425,14 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1356,8 +1466,14 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,22 +1507,28 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1414,8 +1536,8 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1426,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1630,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1531,8 +1671,14 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1566,8 +1712,14 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,8 +1753,14 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1636,48 +1794,60 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,13 +1878,15 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
+      <c r="D41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1741,8 +1915,14 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,22 +1956,28 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -1802,22 +1988,28 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -1846,19 +2038,25 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1881,8 +2079,14 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1916,31 +2120,37 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1951,13 +2161,19 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -1986,8 +2202,14 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2243,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2325,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2126,8 +2366,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,13 +2407,19 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2196,8 +2448,14 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,16 +2486,18 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2246,11 +2508,11 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
@@ -2261,13 +2523,19 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2296,8 +2564,14 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2331,16 +2605,22 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2366,8 +2646,14 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,8 +2687,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2728,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,16 +2851,22 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2576,8 +2892,14 @@
       <c r="M66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,8 +3073,14 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2743,10 +3091,10 @@
         <v>-100</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -2766,8 +3114,14 @@
       <c r="M72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,8 +3237,14 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2906,8 +3278,14 @@
       <c r="M76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,48 +3319,60 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3016,8 +3406,14 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,19 +3427,21 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3066,8 +3464,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3669,14 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3276,8 +3710,14 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3731,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3317,17 +3759,23 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,19 +3850,25 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -3416,11 +3876,11 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3431,8 +3891,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +4072,55 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,8 +4154,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3689,6 +4193,12 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ECRP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ECRP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>ECRP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,77 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +775,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -782,20 +795,20 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -809,8 +822,14 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,20 +842,20 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -850,8 +869,14 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +892,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +935,14 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +982,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1029,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,16 +1096,18 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1086,8 +1139,14 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1127,8 +1186,14 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1209,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,8 +1252,14 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1205,11 +1278,11 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -1226,8 +1299,14 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1237,26 +1316,26 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1267,16 +1346,22 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1308,8 +1393,14 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,16 +1487,22 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1431,16 +1534,22 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1472,8 +1581,14 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,13 +1628,19 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1527,23 +1648,23 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1769,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1677,16 +1816,22 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1718,8 +1863,14 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,16 +1910,22 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1800,54 +1957,66 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,19 +2051,21 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -1921,8 +2094,14 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,28 +2141,34 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -1994,28 +2179,34 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2044,25 +2235,31 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2085,16 +2282,22 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2126,20 +2329,26 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>200</v>
+      </c>
+      <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2152,11 +2361,11 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2167,19 +2376,25 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2208,8 +2423,14 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2470,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2564,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2611,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,20 +2658,26 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -2454,8 +2705,14 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,22 +2747,24 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2514,11 +2775,11 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
@@ -2529,20 +2790,26 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -2570,8 +2837,14 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2581,20 +2854,20 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2611,22 +2884,28 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -2652,8 +2931,14 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2978,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +3025,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,22 +3166,28 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -2898,8 +3213,14 @@
       <c r="O66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,16 +3420,22 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-100</v>
+        <v>-700</v>
       </c>
       <c r="E72" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="F72" s="3">
         <v>-100</v>
@@ -3097,10 +3444,10 @@
         <v>-100</v>
       </c>
       <c r="H72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -3120,8 +3467,14 @@
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,16 +3608,22 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -3284,8 +3655,14 @@
       <c r="O76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,62 +3702,74 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -3412,8 +3801,14 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3824,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3443,11 +3840,11 @@
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -3470,8 +3867,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,16 +4102,22 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3716,8 +4149,14 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +4172,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3765,17 +4206,23 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,25 +4309,31 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -3882,11 +4341,11 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3897,8 +4356,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4563,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,16 +4657,22 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -4199,6 +4702,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>
